--- a/assets/db/data.xlsx
+++ b/assets/db/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>contact</v>
+        <v>telegram</v>
       </c>
       <c r="D1" t="str">
         <v>email</v>
@@ -422,6 +422,9 @@
         <v>date</v>
       </c>
       <c r="G1" t="str">
+        <v>actual_date</v>
+      </c>
+      <c r="H1" t="str">
         <v>createat_at</v>
       </c>
     </row>
@@ -433,24 +436,27 @@
         <v>asd</v>
       </c>
       <c r="C2" t="str">
-        <v>Andrey_Smirnoffv</v>
+        <v>hashfuck</v>
       </c>
       <c r="D2" t="str">
         <v>smirnoffa675@gmail.com</v>
       </c>
       <c r="E2" t="str">
-        <v>asd</v>
+        <v>+4915227827223</v>
       </c>
       <c r="F2" t="str">
-        <v>11.1.2025</v>
-      </c>
-      <c r="G2">
-        <v>1736466759180</v>
+        <v>15.1.2025</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2">
+        <v>1736935412416</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>